--- a/medicine/Mort/Monument_aux_morts_de_l'artillerie_et_du_train/Monument_aux_morts_de_l'artillerie_et_du_train.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_l'artillerie_et_du_train/Monument_aux_morts_de_l'artillerie_et_du_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_l%27artillerie_et_du_train</t>
+          <t>Monument_aux_morts_de_l'artillerie_et_du_train</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts de l'artillerie et du train est un mémorial à Draguignan, en France. D'abord situé à Fontainebleau à partir de 1925, il est transféré vers son lieu actuel en 2004.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_l%27artillerie_et_du_train</t>
+          <t>Monument_aux_morts_de_l'artillerie_et_du_train</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nos jours, le monument est situé dans la quartier Bonaparte, à l'est de Draguignan, et plus largement à l'est du département du Var.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_l%27artillerie_et_du_train</t>
+          <t>Monument_aux_morts_de_l'artillerie_et_du_train</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inauguration
-Le monument est sculpté par Marcel Gaumont, lauréat du prix de Rome, et est installé dans le quartier des Héronnières du château où stationne alors l'École de l'artillerie. Sa cérémonie d'inauguration a lieu le 8 juillet 1925, présidée par le président de la République Gaston Doumergue avec des membres du gouvernement, des maréchaux de France et des membres du Conseil supérieur de la guerre[1],[2],[3].
+          <t>Inauguration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument est sculpté par Marcel Gaumont, lauréat du prix de Rome, et est installé dans le quartier des Héronnières du château où stationne alors l'École de l'artillerie. Sa cérémonie d'inauguration a lieu le 8 juillet 1925, présidée par le président de la République Gaston Doumergue avec des membres du gouvernement, des maréchaux de France et des membres du Conseil supérieur de la guerre.
 			Doumergue déposant une gerbe au pied du monument lors de son inauguration.
 			Doumergue entouré d'autres personnalités politiques et militaires devant le monument lors de son inauguration.
 			Carte postale représentant le monument vers le milieu du XXe siècle.
 On peut également noter que la loi du 28 mars 1928 change l'appellation train des équipages militaires pour train, laissant par conséquent l'inscription sur le monument comme un témoignage du passé.
-Transfert
-L'École de l'artillerie est successivement transférée dans d'autres villes à partir de 1940, laissant un emplacement peu cohérent à Fontainebleau. Dès 2000, le général Grenier demande son transfert à Draguignan, dans le quartier Bonaparte, où stationne à présent l'école, soit à une distance par orthodromie de plus de 600 km de la première ville. Cette opération est donc effectuée en 2004 et le 26 mai de cette année, on organise à cette occasion une cérémonie rassemblant tous les chefs de corps de l'artillerie et leurs étendards[4].
 </t>
         </is>
       </c>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_l%27artillerie_et_du_train</t>
+          <t>Monument_aux_morts_de_l'artillerie_et_du_train</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +594,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transfert</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École de l'artillerie est successivement transférée dans d'autres villes à partir de 1940, laissant un emplacement peu cohérent à Fontainebleau. Dès 2000, le général Grenier demande son transfert à Draguignan, dans le quartier Bonaparte, où stationne à présent l'école, soit à une distance par orthodromie de plus de 600 km de la première ville. Cette opération est donc effectuée en 2004 et le 26 mai de cette année, on organise à cette occasion une cérémonie rassemblant tous les chefs de corps de l'artillerie et leurs étendards.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Monument_aux_morts_de_l'artillerie_et_du_train</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monument_aux_morts_de_l%27artillerie_et_du_train</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Avant
-La partie avant du monument est un haut-relief représentant une scène de bataille, supportée par l'inscription « AVX MORTS / DE L’ARTILLERIE / ET DV / TRAIN / DES EQVIPAGES / 1914 - 1918 ». Le socle comporte plusieurs bas-relief en bronze et la partie arrière se compose d'une grande plaque répertoriant les victimes.
-Arrière</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie avant du monument est un haut-relief représentant une scène de bataille, supportée par l'inscription « AVX MORTS / DE L’ARTILLERIE / ET DV / TRAIN / DES EQVIPAGES / 1914 - 1918 ». Le socle comporte plusieurs bas-relief en bronze et la partie arrière se compose d'une grande plaque répertoriant les victimes.
+</t>
         </is>
       </c>
     </row>
